--- a/svmx/test_lab/test_cases/swat/swat_excelData/swatdata.xlsx
+++ b/svmx/test_lab/test_cases/swat/swat_excelData/swatdata.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Auto\Sahi_Pro\userdata\scripts\Sahi_Project\svmx\test_lab\test_cases\swat\swat_excelData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="4545" tabRatio="783" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="5640" tabRatio="783" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="USer_Details" sheetId="7" r:id="rId1"/>
@@ -19,8 +14,11 @@
     <sheet name="Product" sheetId="4" r:id="rId5"/>
     <sheet name="Standard Price" sheetId="6" r:id="rId6"/>
     <sheet name="Installed Product" sheetId="5" r:id="rId7"/>
+    <sheet name="runData" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="190">
   <si>
     <t>Account</t>
   </si>
@@ -489,6 +487,120 @@
   </si>
   <si>
     <t>01u4B00000NyToOQAV</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>InstalledProduct</t>
+  </si>
+  <si>
+    <t>00001156</t>
+  </si>
+  <si>
+    <t>00001157</t>
+  </si>
+  <si>
+    <t>Acc2232018114513</t>
+  </si>
+  <si>
+    <t>Con2232018114544</t>
+  </si>
+  <si>
+    <t>pro223201811468</t>
+  </si>
+  <si>
+    <t>IB_2232018114631</t>
+  </si>
+  <si>
+    <t>00001158</t>
+  </si>
+  <si>
+    <t>Acc2232018115611</t>
+  </si>
+  <si>
+    <t>Con2232018115636</t>
+  </si>
+  <si>
+    <t>pro223201811575</t>
+  </si>
+  <si>
+    <t>IB_2232018115729</t>
+  </si>
+  <si>
+    <t>00001161</t>
+  </si>
+  <si>
+    <t>Acc2232018122957</t>
+  </si>
+  <si>
+    <t>Con2232018123027</t>
+  </si>
+  <si>
+    <t>pro2232018123055</t>
+  </si>
+  <si>
+    <t>IB_2232018123122</t>
+  </si>
+  <si>
+    <t>00001165</t>
+  </si>
+  <si>
+    <t>Acc223201813942</t>
+  </si>
+  <si>
+    <t>Con2232018131014</t>
+  </si>
+  <si>
+    <t>pro2232018131037</t>
+  </si>
+  <si>
+    <t>IB_2232018131110</t>
+  </si>
+  <si>
+    <t>00001198</t>
+  </si>
+  <si>
+    <t>Acc223201815409</t>
+  </si>
+  <si>
+    <t>Con2232018154039</t>
+  </si>
+  <si>
+    <t>pro223201815416</t>
+  </si>
+  <si>
+    <t>IB_2232018154132</t>
+  </si>
+  <si>
+    <t>00001201</t>
+  </si>
+  <si>
+    <t>Acc2232018165148</t>
+  </si>
+  <si>
+    <t>Con2232018165235</t>
+  </si>
+  <si>
+    <t>pro223201816536</t>
+  </si>
+  <si>
+    <t>IB_2232018165335</t>
+  </si>
+  <si>
+    <t>00001203</t>
+  </si>
+  <si>
+    <t>Acc223201818211</t>
+  </si>
+  <si>
+    <t>Con223201818245</t>
+  </si>
+  <si>
+    <t>pro223201818315</t>
+  </si>
+  <si>
+    <t>IB_223201818350</t>
   </si>
 </sst>
 </file>
@@ -1522,7 +1634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2250,4 +2362,68 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/svmx/test_lab/test_cases/swat/swat_excelData/swatdata.xlsx
+++ b/svmx/test_lab/test_cases/swat/swat_excelData/swatdata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="195">
   <si>
     <t>Account</t>
   </si>
@@ -601,6 +601,21 @@
   </si>
   <si>
     <t>IB_223201818350</t>
+  </si>
+  <si>
+    <t>00001043</t>
+  </si>
+  <si>
+    <t>Acc34201812048</t>
+  </si>
+  <si>
+    <t>Con34201812120</t>
+  </si>
+  <si>
+    <t>pro34201812150</t>
+  </si>
+  <si>
+    <t>IB_34201812222</t>
   </si>
 </sst>
 </file>
@@ -2396,19 +2411,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/svmx/test_lab/test_cases/swat/swat_excelData/swatdata.xlsx
+++ b/svmx/test_lab/test_cases/swat/swat_excelData/swatdata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="200">
   <si>
     <t>Account</t>
   </si>
@@ -616,6 +616,21 @@
   </si>
   <si>
     <t>IB_34201812222</t>
+  </si>
+  <si>
+    <t>00001096</t>
+  </si>
+  <si>
+    <t>Acc18420181578</t>
+  </si>
+  <si>
+    <t>Con184201815739</t>
+  </si>
+  <si>
+    <t>pro184201815811</t>
+  </si>
+  <si>
+    <t>IB_184201815840</t>
   </si>
 </sst>
 </file>
@@ -2411,19 +2426,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/svmx/test_lab/test_cases/swat/swat_excelData/swatdata.xlsx
+++ b/svmx/test_lab/test_cases/swat/swat_excelData/swatdata.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="210">
   <si>
     <t>Account</t>
   </si>
@@ -616,6 +616,51 @@
   </si>
   <si>
     <t>IB_34201812222</t>
+  </si>
+  <si>
+    <t>00001062</t>
+  </si>
+  <si>
+    <t>Acc642018142541</t>
+  </si>
+  <si>
+    <t>Con642018142613</t>
+  </si>
+  <si>
+    <t>pro642018142637</t>
+  </si>
+  <si>
+    <t>IB_64201814276</t>
+  </si>
+  <si>
+    <t>00001063</t>
+  </si>
+  <si>
+    <t>Acc642018143358</t>
+  </si>
+  <si>
+    <t>Con642018143424</t>
+  </si>
+  <si>
+    <t>pro642018143451</t>
+  </si>
+  <si>
+    <t>IB_642018143522</t>
+  </si>
+  <si>
+    <t>00001064</t>
+  </si>
+  <si>
+    <t>Acc642018152555</t>
+  </si>
+  <si>
+    <t>Con642018152618</t>
+  </si>
+  <si>
+    <t>pro642018152645</t>
+  </si>
+  <si>
+    <t>IB_642018152711</t>
   </si>
 </sst>
 </file>
@@ -2411,19 +2456,19 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
